--- a/epigraphhub/data/brasil/sinan/metadata/FTIF.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/FTIF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="490">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -86,8 +86,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32. Ocupação/ Ramo de
-atividade</t>
+    <t xml:space="preserve">32. Ocupação/ Ramo de atividade</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -96,31 +95,14 @@
     <t xml:space="preserve">varchar2(6)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar a atividade
+    <t xml:space="preserve">Informar a atividade
 exercida pelo paciente
 no setor formal, informal
 ou autônomo ou sua
 última atividade
 exercida quando
 paciente for
-desempregado. O ramo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">de atividade econômica
+desempregado. O ramo de atividade econômica
 do paciente refere-se as
 atividades econômicas
 desenvolvidas nos
@@ -131,7 +113,6 @@
 secundário (indústria)
 ou terciário (serviços e
 Comércio).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Campo Essencial</t>
@@ -140,10 +121,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Contato compatível com
-caso de febre tifóide (até 45
-dias antes do início dos sinais e
-sintomas).</t>
+    <t xml:space="preserve">33. Contato compatível com caso de febre tifóide (até 45 dias antes do início dos sinais e sintomas).</t>
   </si>
   <si>
     <t xml:space="preserve">tp_contato_caso_febre</t>
@@ -173,11 +151,7 @@
     <t xml:space="preserve">CONTATO</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Contato compatível com
-caso de febre tifóide (até 45
-dias antes do início dos sinais e
-sintomas). Se Outros
-especificar</t>
+    <t xml:space="preserve">33. Contato compatível com caso de febre tifóide (até 45 dias antes do início dos sinais e sintomas). Se Outros especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_contato_caso_febre_outro</t>
@@ -313,8 +287,7 @@
     <t xml:space="preserve">VINC_OUT</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Assintomático</t>
+    <t xml:space="preserve">37. Sinais e sintomas Assintomático</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_assintomatico</t>
@@ -358,8 +331,7 @@
     <t xml:space="preserve">ASSINTOMAT</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Febre</t>
+    <t xml:space="preserve">37. Sinais e sintomas Febre</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_febre</t>
@@ -399,8 +371,7 @@
     <t xml:space="preserve">FEBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Cefaléia</t>
+    <t xml:space="preserve">37. Sinais e sintomas Cefaléia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_cefaleia</t>
@@ -441,8 +412,7 @@
     <t xml:space="preserve">CEFALEIA</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Diarréia</t>
+    <t xml:space="preserve">37. Sinais e sintomas Diarréia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_diarreia</t>
@@ -473,16 +443,7 @@
       </rPr>
       <t xml:space="preserve">Preenchimento automático
 dos campos do item sinais
-e sintomas (com categoria </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">2-não) quando o primeiro
+e sintomas (com categoria 2-não) quando o primeiro
 (assintomático) =1-sim)</t>
     </r>
   </si>
@@ -490,8 +451,7 @@
     <t xml:space="preserve">DIARREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Constipação</t>
+    <t xml:space="preserve">37. Sinais e sintomas Constipação</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_constiparcao</t>
@@ -504,8 +464,7 @@
     <t xml:space="preserve">CONSTIPA</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Astenia</t>
+    <t xml:space="preserve">37. Sinais e sintomas Astenia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_astenia</t>
@@ -525,8 +484,7 @@
     <t xml:space="preserve">ASTENIA</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Tosse</t>
+    <t xml:space="preserve">37. Sinais e sintomas Tosse</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_tosse</t>
@@ -538,8 +496,7 @@
     <t xml:space="preserve">TOSSE</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Esplenomegalia</t>
+    <t xml:space="preserve">37. Sinais e sintomas Esplenomegalia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_espenomeg</t>
@@ -552,8 +509,7 @@
     <t xml:space="preserve">ESPLENO</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Roséola tífica</t>
+    <t xml:space="preserve">37. Sinais e sintomas Roséola tífica</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_roseola_tifica</t>
@@ -573,8 +529,7 @@
     <t xml:space="preserve">TIFICA</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Náuseas</t>
+    <t xml:space="preserve">37. Sinais e sintomas Náuseas</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_nausea</t>
@@ -587,72 +542,20 @@
     <t xml:space="preserve">NAUSEAS</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Vômitos</t>
+    <t xml:space="preserve">37. Sinais e sintomas Vômitos</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_vomito</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Sim
-2. Não
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">9. Ignorado</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">O paciente apresentou
 vômitos.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Campo Obrigatório
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Preenchimento automático
-dos campos do item sinais
-e sintomas (com categoria
-2-não) quando o primeiro
-(assintomático) =1-sim)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">VOMITOS</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Dor abdominal</t>
+    <t xml:space="preserve">37. Sinais e sintomas Dor abdominal</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_abdominal</t>
@@ -665,8 +568,7 @@
     <t xml:space="preserve">DOR</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Sinais e sintomas
-Dissociação pulso/temperatura</t>
+    <t xml:space="preserve">37. Sinais e sintomas Dissociação pulso/temperatura</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_dissociacao</t>
@@ -680,8 +582,7 @@
     <t xml:space="preserve">PULSO</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Complicações
-Enterorragia</t>
+    <t xml:space="preserve">38. Complicações Enterorragia</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_enterorragia</t>
@@ -694,8 +595,7 @@
     <t xml:space="preserve">ENTERO</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Complicações
-Perfurações intestinais</t>
+    <t xml:space="preserve">38. Complicações Perfurações intestinais</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_perfuracao</t>
@@ -733,8 +633,7 @@
     <t xml:space="preserve">PERFURA</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Complicações
-Outras</t>
+    <t xml:space="preserve">38. Complicações Outras</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_outro</t>
@@ -794,8 +693,7 @@
     <t xml:space="preserve">COMP_OUT</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Complicações
-Se Outras, especificar</t>
+    <t xml:space="preserve">38. Complicações Se Outras, especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complicacao_outro</t>
@@ -896,16 +794,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se campo = 4 ou 9 pular
-para campo 44 (Material </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">coletado Sangue).</t>
+para campo 44 (Material coletado Sangue).</t>
     </r>
   </si>
   <si>
@@ -999,8 +888,7 @@
     <t xml:space="preserve">HOSPITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">44. Material coletado
-Sangue</t>
+    <t xml:space="preserve">44. Material coletado Sangue</t>
   </si>
   <si>
     <t xml:space="preserve">st_material_coletado_sangue</t>
@@ -1040,8 +928,7 @@
     <t xml:space="preserve">SANGUE</t>
   </si>
   <si>
-    <t xml:space="preserve">44. Material coletado
-Fezes</t>
+    <t xml:space="preserve">44. Material coletado Fezes</t>
   </si>
   <si>
     <t xml:space="preserve">st_material_coletado_fezes</t>
@@ -1081,8 +968,7 @@
     <t xml:space="preserve">FEZES</t>
   </si>
   <si>
-    <t xml:space="preserve">44. Material coletado
-Urina</t>
+    <t xml:space="preserve">44. Material coletado Urina</t>
   </si>
   <si>
     <t xml:space="preserve">st_material_coletado_medular</t>
@@ -1122,40 +1008,20 @@
     <t xml:space="preserve">URINA</t>
   </si>
   <si>
-    <t xml:space="preserve">45. Uso de antibiótico antes da
-coleta do material</t>
+    <t xml:space="preserve">45. Uso de antibiótico antes da coleta do material</t>
   </si>
   <si>
     <t xml:space="preserve">st_uso_antibiotico</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O paciente fez uso de
-antibiótico antes da </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">coleta para exame.</t>
-    </r>
+    <t xml:space="preserve">O paciente fez uso de
+antibiótico antes da coleta para exame.</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIBIOTIC</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Data da 1ª Coleta</t>
+    <t xml:space="preserve">46. Hemocultura Data da 1ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_hemocultura_coleta_1</t>
@@ -1179,8 +1045,7 @@
     <t xml:space="preserve">DT_HEMO1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Resultado da 1° coleta</t>
+    <t xml:space="preserve">46. Hemocultura Resultado da 1° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemocultura_resultado_1</t>
@@ -1197,9 +1062,7 @@
     <t xml:space="preserve">HEMO_R1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Resultado da 1° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Hemocultura Resultado da 1° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_hemocultura_resultado_1</t>
@@ -1208,8 +1071,7 @@
     <t xml:space="preserve">HEMO_D_1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Data da 2ª Coleta</t>
+    <t xml:space="preserve">46. Hemocultura Data da 2ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_hemocultura_coleta_2</t>
@@ -1224,8 +1086,7 @@
     <t xml:space="preserve">DT_HEMO2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Resultado da 2° coleta</t>
+    <t xml:space="preserve">46. Hemocultura Resultado da 2° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemocultura_resultado_2</t>
@@ -1234,9 +1095,7 @@
     <t xml:space="preserve">HEMO_R2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Resultado da 2° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Hemocultura Resultado da 2° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_hemocultura_resultado_2</t>
@@ -1245,8 +1104,7 @@
     <t xml:space="preserve">HEMO_D_2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Data da 3ª Coleta</t>
+    <t xml:space="preserve">46. Hemocultura Data da 3ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_hemocultura_coleta_3</t>
@@ -1261,8 +1119,7 @@
     <t xml:space="preserve">DT_HEMO3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Resultado da 3° coleta</t>
+    <t xml:space="preserve">46. Hemocultura Resultado da 3° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemocultura_resultado_3</t>
@@ -1271,9 +1128,7 @@
     <t xml:space="preserve">HEMO_R3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Hemocultura
-Resultado da 3° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Hemocultura Resultado da 3° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_hemocultura_resultado_3</t>
@@ -1282,8 +1137,7 @@
     <t xml:space="preserve">HEMO_D_3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Data da 1ª Coleta</t>
+    <t xml:space="preserve">46. Urocultura Data da 1ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_mielocultura_coleta_1</t>
@@ -1307,8 +1161,7 @@
     <t xml:space="preserve">DT_URO</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Resultado da 1°coleta</t>
+    <t xml:space="preserve">46. Urocultura Resultado da 1°coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_mielocultura_resultado_1</t>
@@ -1321,9 +1174,7 @@
     <t xml:space="preserve">URO_R1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Resultado da 1°coleta
-Especificar</t>
+    <t xml:space="preserve">46. Urocultura Resultado da 1°coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">Ds_mielocultura_resultado_1</t>
@@ -1332,8 +1183,7 @@
     <t xml:space="preserve">URO_D</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Data da 2ª Coleta</t>
+    <t xml:space="preserve">46. Urocultura Data da 2ª Coleta</t>
   </si>
   <si>
     <r>
@@ -1366,8 +1216,7 @@
     <t xml:space="preserve">DT_URO2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Resultado da 2° coleta</t>
+    <t xml:space="preserve">46. Urocultura Resultado da 2° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_mielocultura_resultado_2</t>
@@ -1376,9 +1225,7 @@
     <t xml:space="preserve">URO_R2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Resultado da 2° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Urocultura Resultado da 2° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_mielocultura_resultado_2</t>
@@ -1387,8 +1234,7 @@
     <t xml:space="preserve">URO_D_2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Data da 3ª Coleta</t>
+    <t xml:space="preserve">46. Urocultura Data da 3ª Coleta</t>
   </si>
   <si>
     <r>
@@ -1417,8 +1263,7 @@
     <t xml:space="preserve">DT_URO3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Resultado da 3° coleta</t>
+    <t xml:space="preserve">46. Urocultura Resultado da 3° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_mielocultura_resultado_3</t>
@@ -1427,9 +1272,7 @@
     <t xml:space="preserve">URO_R3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Urocultura
-Resultado da 3° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Urocultura Resultado da 3° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_mielocultura_resultado_3</t>
@@ -1438,8 +1281,7 @@
     <t xml:space="preserve">URO_D_3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-data da 1° coleta</t>
+    <t xml:space="preserve">46. Coprocultura data da 1° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coprocultura_coleta_1</t>
@@ -1459,8 +1301,7 @@
     <t xml:space="preserve">DT_COPRO1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Resultado da 1° coleta</t>
+    <t xml:space="preserve">46. Coprocultura Resultado da 1° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_coprocultura_resultado_1</t>
@@ -1469,9 +1310,7 @@
     <t xml:space="preserve">COPRO_R1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Resultado da 1° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Coprocultura Resultado da 1° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_coprocultura_resultado_1</t>
@@ -1480,41 +1319,21 @@
     <t xml:space="preserve">COPRO_D_1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-data da 2° coleta</t>
+    <t xml:space="preserve">46. Coprocultura data da 2° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coprocultura_coleta_2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Data da Coleta &gt;= Data de
-Primeiros Sintomas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Data da 2ª coleta deve ser
+    <t xml:space="preserve">Data da Coleta &gt;= Data de
+Primeiros Sintomas Data da 2ª coleta deve ser
 ≤ data atual</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">DT_COPRO2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Resultado da 2° coleta</t>
+    <t xml:space="preserve">46. Coprocultura Resultado da 2° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_coprocultura_resultado_2</t>
@@ -1523,9 +1342,7 @@
     <t xml:space="preserve">COPRO_R2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Resultado da 2° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Coprocultura Resultado da 2° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_coprocultura_resultado_2</t>
@@ -1534,8 +1351,7 @@
     <t xml:space="preserve">COPRO_D_2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Data da 3ª Coleta</t>
+    <t xml:space="preserve">46. Coprocultura Data da 3ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coprocultura_coleta_3</t>
@@ -1544,8 +1360,7 @@
     <t xml:space="preserve">DT_COPRO3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Resultado da 3° coleta</t>
+    <t xml:space="preserve">46. Coprocultura Resultado da 3° coleta</t>
   </si>
   <si>
     <t xml:space="preserve">tp_coprocultura_resultado_3</t>
@@ -1554,9 +1369,7 @@
     <t xml:space="preserve">COPRO_R3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Coprocultura
-Resultado da 3° coleta
-Especificar</t>
+    <t xml:space="preserve">46. Coprocultura Resultado da 3° coleta Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_coprocultura_resultado_3</t>
@@ -1565,8 +1378,7 @@
     <t xml:space="preserve">COPRO_D_3</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Outro exame
-Data da 1ª Coleta</t>
+    <t xml:space="preserve">46. Outro exame Data da 1ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_outro_coleta_1</t>
@@ -1581,8 +1393,7 @@
     <t xml:space="preserve">DT_OUTR1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Outro exame
-Resultado</t>
+    <t xml:space="preserve">46. Outro exame Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_outro_resultado_1</t>
@@ -1591,9 +1402,7 @@
     <t xml:space="preserve">OUTR_R1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Outro exame
-Resultado
-Especificar</t>
+    <t xml:space="preserve">46. Outro exame Resultado Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_outro_resultado_1</t>
@@ -1602,8 +1411,7 @@
     <t xml:space="preserve">OUTR_D1</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Outro exame
-Data da 2ª Coleta</t>
+    <t xml:space="preserve">46. Outro exame Data da 2ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_outro_coleta_2</t>
@@ -1630,8 +1438,7 @@
     <t xml:space="preserve">OUTR_D2</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Outro exame
-Data da 3ª Coleta</t>
+    <t xml:space="preserve">46. Outro exame Data da 3ª Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_outro_coleta_3</t>
@@ -1652,9 +1459,7 @@
     <t xml:space="preserve">OUTR_D3</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Antibióticos utilizados no
-tratamento
-Cloranfenicol</t>
+    <t xml:space="preserve">47. Antibióticos utilizados no tratamento Cloranfenicol</t>
   </si>
   <si>
     <t xml:space="preserve">st_antibio_trata_cloranfenicol</t>
@@ -1668,9 +1473,7 @@
     <t xml:space="preserve">CLORAFEN</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Antibióticos utilizados no
-tratamento
-Ampicilina</t>
+    <t xml:space="preserve">47. Antibióticos utilizados no tratamento Ampicilina</t>
   </si>
   <si>
     <t xml:space="preserve">st_antibio_trata_ampicilina</t>
@@ -1684,9 +1487,7 @@
     <t xml:space="preserve">AMPICILINA</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Antibióticos utilizados no
-tratamento
-Sulfametaxazol+Trimetropina</t>
+    <t xml:space="preserve">47. Antibióticos utilizados no tratamento Sulfametaxazol+Trimetropina</t>
   </si>
   <si>
     <t xml:space="preserve">st_antibio_trata_sulfametox</t>
@@ -1700,61 +1501,20 @@
     <t xml:space="preserve">SULFA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">47. Antibióticos utilizados no
-Tratamento </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Quinolona</t>
-    </r>
+    <t xml:space="preserve">47. Antibióticos utilizados no Tratamento Quinolona</t>
   </si>
   <si>
     <t xml:space="preserve">st_antibio_trata_quinolona</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O paciente fez uso de
-Quinolona durante o </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">tratamento.</t>
-    </r>
+    <t xml:space="preserve">O paciente fez uso de
+Quinolona durante o tratamento.</t>
   </si>
   <si>
     <t xml:space="preserve">QUINOLONA</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Antibióticos utilizados no
-tratamento
-Outro</t>
+    <t xml:space="preserve">47. Antibióticos utilizados no tratamento Outro</t>
   </si>
   <si>
     <t xml:space="preserve">st_antibio_trata_outro</t>
@@ -1866,8 +1626,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">49. Critério de
-confirmação/Descarte</t>
+    <t xml:space="preserve">49. Critério de confirmação/Descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -1915,8 +1674,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">50. O caso é Autóctone de
-residência?</t>
+    <t xml:space="preserve">50. O caso é Autóctone de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -1962,16 +1720,7 @@
 provável da fonte de
 infecção) com os valores
 registrados nos campos da
-notificação e habilita para o </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">usuário preencher os
+notificação e habilita para o usuário preencher os
 campos distrito e bairro (se
 país de residência não for
 Brasil, a UF e município de
@@ -2003,6 +1752,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -2013,6 +1763,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -2025,8 +1776,7 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">51. UF (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">51. UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
@@ -2068,16 +1818,7 @@
       <t xml:space="preserve">se país de infecção= Brasil
 e se campo classificação
 final=1(confirmado).
-Se o campo (O caso é </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">autóctone do município de
+Se o campo (O caso é autóctone do município de
 residência) for = 1 (sim), o
 sistema preenche
 automaticamente com a UF
@@ -2095,6 +1836,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -2105,6 +1847,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -2117,8 +1860,7 @@
     <t xml:space="preserve">COUFINF</t>
   </si>
   <si>
-    <t xml:space="preserve">52. País (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">52. País (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_infeccao</t>
@@ -2202,59 +1944,22 @@
     <t xml:space="preserve">COPAISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Município (provável da fonte
-de infecção)</t>
+    <t xml:space="preserve">53. Município (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_infeccao</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tabela com
+    <t xml:space="preserve">Tabela com
 Códigos e nomes
-padronizados pelo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">IBGE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Código do município
+padronizados pelo IBGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código do município
 onde o paciente foi
-Provavelmente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">infectado. O nome está
+Provavelmente infectado. O nome está
 associado ao código na
 tabela de municípios.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2278,16 +1983,7 @@
       </rPr>
       <t xml:space="preserve">se
 país de infecção = Brasil e
-se campo classificação </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">final=1(confirmado).
+se campo classificação final=1(confirmado).
 Se o campo (O caso é
 autóctone do município de
 residência do caso) for = 1
@@ -2306,6 +2002,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -2316,6 +2013,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -2328,8 +2026,7 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <t xml:space="preserve">54. Distrito
-(provável de infecção)</t>
+    <t xml:space="preserve">54. Distrito (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_distrito_infeccão</t>
@@ -2417,11 +2114,10 @@
     <t xml:space="preserve">CODISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">55. Bairro (provável de
-infecção)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co_bairro_infeccao,
+    <t xml:space="preserve">55. Bairro (provável de infecção)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_bairro_infeccao
 no_bairro_infeccao</t>
   </si>
   <si>
@@ -2429,33 +2125,15 @@
 vachar2(60)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tabela Códigos e
+    <t xml:space="preserve">Tabela Códigos e
 nomes
 padronizados
 segundo Tabela
 disponibilizada
 pelo sistema para
-Cadastramento </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">pelo Gestor
+Cadastramento pelo Gestor
 municipal do
 Sinan</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Código do bairro
@@ -2489,16 +2167,7 @@
 o município de infecção for
 subdividido em bairro e se
 campo classificação final
-for igual a 1 (confirmado). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Se o bairro não estiver na
+for igual a 1 (confirmado). Se o bairro não estiver na
 tabela de distrito provável
 de infecção do município
 provável de infecção, será
@@ -2516,6 +2185,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -2526,6 +2196,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -2539,8 +2210,7 @@
 NOBAIINF</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Doença relacionada ao
-trabalho</t>
+    <t xml:space="preserve">56. Doença relacionada ao trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -2693,16 +2363,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se classificação final = 2
-(descartado) não permitir a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">opção o preenchimento
+(descartado) não permitir a opção o preenchimento
 com a opção 2 (óbito por
 febre tifóide).</t>
     </r>
@@ -2779,8 +2440,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferência vertical da
-investigação</t>
+    <t xml:space="preserve">Transferência vertical da investigação</t>
   </si>
   <si>
     <t xml:space="preserve">nu_lote_vertical</t>
@@ -2811,8 +2471,7 @@
     <t xml:space="preserve">NU_LOTE_I</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 1 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Data 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">dt_complementar_1</t>
@@ -2836,8 +2495,7 @@
 acessada pela consulta</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 2 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Data 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">dt_complementar_2</t>
@@ -2854,8 +2512,7 @@
 Informar data 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 3 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Data 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">dt_complementar_3</t>
@@ -2872,8 +2529,7 @@
 Informar data 3</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 1 Informações
-complementares e observações</t>
+    <t xml:space="preserve">UF 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_complementar_1</t>
@@ -2890,8 +2546,7 @@
 Informar UF 1</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 2 Informações
-complementares e observações</t>
+    <t xml:space="preserve">UF 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_complementar_2</t>
@@ -2908,67 +2563,29 @@
 Informar UF 2</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 3 Informações
-complementares e observações</t>
+    <t xml:space="preserve">UF 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_complementar_3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informações
+    <t xml:space="preserve">Informações
 complementares e
 observações
-Deslocamento (datas e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">locais frequentados no
+Deslocamento (datas e locais frequentados no
 período de 45 dias
 anteriores ao início dos
 sinais e sintomas)
 Informar UF 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esse campo não é
+  </si>
+  <si>
+    <t xml:space="preserve">Esse campo não é
 exportado
 O dado está disponível na
-base original sinan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">acessada pela consulta</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Município 1 Informações
-complementares e observações</t>
+base original sinan acessada pela consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Município 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_complementar_1</t>
@@ -2985,8 +2602,7 @@
 Informar Município 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 2 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Município 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_complementar_2</t>
@@ -3003,8 +2619,7 @@
 Informar Município 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 3 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Município 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_complementar_3</t>
@@ -3021,8 +2636,7 @@
 Informar Município 3</t>
   </si>
   <si>
-    <t xml:space="preserve">País 1 Informações
-complementares e observações</t>
+    <t xml:space="preserve">País 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_complementar_1</t>
@@ -3042,8 +2656,7 @@
 Informar País 1</t>
   </si>
   <si>
-    <t xml:space="preserve">País 2 Informações
-complementares e observações</t>
+    <t xml:space="preserve">País 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_complementar_2</t>
@@ -3060,8 +2673,7 @@
 Informar País 2</t>
   </si>
   <si>
-    <t xml:space="preserve">País 3 Informações
-complementares e observações</t>
+    <t xml:space="preserve">País 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_complementar_3</t>
@@ -3078,9 +2690,7 @@
 Informar País 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de Transporte 1
-Informações complementares e
-observações</t>
+    <t xml:space="preserve">Meio de Transporte 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_meio_trans_complementar_1</t>
@@ -3101,9 +2711,7 @@
 transporte 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de Transporte 2
-Informações complementares e
-observações</t>
+    <t xml:space="preserve">Meio de Transporte 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_meio_tra2</t>
@@ -3121,69 +2729,30 @@
 transporte 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de Transporte 3
-Informações complementares e
-observações</t>
+    <t xml:space="preserve">Meio de Transporte 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_meio_trans_complementar_3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informações
+    <t xml:space="preserve">Informações
 complementares e
-Observações </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Deslocamento (datas e
+Observações Deslocamento (datas e
 locais frequentados no
 período de 45 dias
 anteriores ao início dos
 sinais e sintomas)
 Informar Meio de
 Transporte 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esse campo não é
+  </si>
+  <si>
+    <t xml:space="preserve">Esse campo não é
 exportado
-O dado está disponível na </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">base original sinan
+O dado está disponível na base original sinan
 acessada pela consulta</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de alimento 1 Informações
-complementares e observações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de alimento 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_1</t>
@@ -3197,8 +2766,7 @@
 alimento 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 2 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Tipo de alimento 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_2</t>
@@ -3212,8 +2780,7 @@
 alimento 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 3 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Tipo de alimento 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_3</t>
@@ -3227,8 +2794,7 @@
 alimento 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 4 Informações
-complementares e observações</t>
+    <t xml:space="preserve">Tipo de alimento 4 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_4</t>
@@ -3242,9 +2808,7 @@
 alimento 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 1
-Informações complementares e
-observações</t>
+    <t xml:space="preserve">Local de consumo 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_1</t>
@@ -3258,42 +2822,20 @@
 consumo 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 2
-Informações complementares e
-observações</t>
+    <t xml:space="preserve">Local de consumo 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Alimentos consumidos
+    <t xml:space="preserve">Alimentos consumidos
 na última semana e
-sugestivo de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">contaminação
+sugestivo de contaminação
 Informar o Local de
 Consumo 2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Local de consumo 3
-Informações complementares e
-observações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local de consumo 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_3</t>
@@ -3307,9 +2849,7 @@
 consumo 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 4
-Informações complementares e
-observações</t>
+    <t xml:space="preserve">Local de consumo 4 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_4</t>
@@ -3351,11 +2891,7 @@
 outros</t>
   </si>
   <si>
-    <t xml:space="preserve">'Exames Laboratoriais
-1 - Salmonella typhi
-2 - Slamonella SSP
-3 - Negativo
-4 - Outro Agente (especificar)'</t>
+    <t xml:space="preserve">'Exames Laboratoriais 1 - Salmonella typhi 2 - Slamonella SSP 3 - Negativo 4 - Outro Agente (especificar)'</t>
   </si>
   <si>
     <t xml:space="preserve">varchar(1)</t>
@@ -3367,59 +2903,6 @@
 3 - Negativo
 4 - Outro Agente
 (especificar)'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'Exames Laboratoriais
-1 - Salmonella typhi
-2 - Slamonella SSP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">3 - Negativo
-4 - Outro Agente (especificar)'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exames Laboratoriais
-1 - Salmonella typhi
-2 - Slamonella SSP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">3 - Negativo
-4 - Outro Agente
-(especificar)'</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Exames Laboratoriais - (Especificar)</t>
@@ -3439,7 +2922,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3470,27 +2953,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -3503,6 +2965,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3612,7 +3075,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3632,7 +3095,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3640,7 +3103,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3652,7 +3115,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3660,7 +3123,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3683,8 +3146,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B130" activeCellId="0" sqref="B130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.4609375" defaultRowHeight="81.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4159,24 +3622,24 @@
         <v>21</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -4185,21 +3648,21 @@
         <v>58</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -4208,21 +3671,21 @@
         <v>58</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -4231,21 +3694,21 @@
         <v>58</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -4254,21 +3717,21 @@
         <v>58</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -4277,143 +3740,143 @@
         <v>58</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="G28" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -4422,21 +3885,21 @@
         <v>58</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -4445,21 +3908,21 @@
         <v>58</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>21</v>
@@ -4468,84 +3931,84 @@
         <v>58</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>27</v>
@@ -4554,55 +4017,55 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>27</v>
@@ -4611,55 +4074,55 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>27</v>
@@ -4668,59 +4131,59 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>27</v>
@@ -4729,57 +4192,57 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>27</v>
@@ -4788,57 +4251,57 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>27</v>
@@ -4847,15 +4310,15 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>9</v>
@@ -4863,37 +4326,37 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>27</v>
@@ -4902,15 +4365,15 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>9</v>
@@ -4918,37 +4381,37 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>27</v>
@@ -4957,55 +4420,55 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>27</v>
@@ -5014,55 +4477,55 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>27</v>
@@ -5071,55 +4534,55 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>27</v>
@@ -5128,55 +4591,55 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>27</v>
@@ -5185,15 +4648,15 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>21</v>
@@ -5202,19 +4665,19 @@
         <v>58</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>21</v>
@@ -5223,19 +4686,19 @@
         <v>58</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>21</v>
@@ -5244,40 +4707,40 @@
         <v>58</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -5286,243 +4749,243 @@
         <v>58</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="G80" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="G81" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="G82" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="G83" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="G84" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="G85" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="E86" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="G86" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="D87" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="E87" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="F87" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="G87" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>21</v>
@@ -5531,675 +4994,675 @@
         <v>58</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F89" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="G89" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="F92" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="G92" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>433</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>435</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="12" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="12" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
